--- a/medicine/Psychotrope/Boîte_à_cigares/Boîte_à_cigares.xlsx
+++ b/medicine/Psychotrope/Boîte_à_cigares/Boîte_à_cigares.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bo%C3%AEte_%C3%A0_cigares</t>
+          <t>Boîte_à_cigares</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une boîte à cigares ou boite à cigares[1] est une boîte destinée à contenir des cigares. On parle de boîte de cigares ou de boite de cigares[1] quand une telle boîte est pleine.
-Les boîtes à cigares, leurs étiquettes et les bagues des cigares sont considérées comme des objets d'art[2]. Il existe des entreprises spécialisées, ainsi que des livres consacrés à ce sujet, traitant de la conception, de la signification et de l'importance des boîtes à cigares[3]. Cela en fait des objets de collection[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une boîte à cigares ou boite à cigares est une boîte destinée à contenir des cigares. On parle de boîte de cigares ou de boite de cigares quand une telle boîte est pleine.
+Les boîtes à cigares, leurs étiquettes et les bagues des cigares sont considérées comme des objets d'art. Il existe des entreprises spécialisées, ainsi que des livres consacrés à ce sujet, traitant de la conception, de la signification et de l'importance des boîtes à cigares. Cela en fait des objets de collection.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bo%C3%AEte_%C3%A0_cigares</t>
+          <t>Boîte_à_cigares</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Matières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les boîtes de cigares traditionnelles sont faites en bois, en carton ou en papier. Le cèdre espagnol a été décrit comme la « meilleure » sorte de bois pour les boîtes à cigares à cause de son grain, de sa texture et de son odeur agréables. L'eucalyptus et le bois-jaune sont des substituts fréquents à ce bois, qui ont parfois été teints et parfumés pour y ressembler. D'autres bois typiques pour les boîtes à cigares comprennent l'acajou, l'orme et le chêne blanc. Des sortes moins répandues sont le tilleul, le noyer et le palissandre[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les boîtes de cigares traditionnelles sont faites en bois, en carton ou en papier. Le cèdre espagnol a été décrit comme la « meilleure » sorte de bois pour les boîtes à cigares à cause de son grain, de sa texture et de son odeur agréables. L'eucalyptus et le bois-jaune sont des substituts fréquents à ce bois, qui ont parfois été teints et parfumés pour y ressembler. D'autres bois typiques pour les boîtes à cigares comprennent l'acajou, l'orme et le chêne blanc. Des sortes moins répandues sont le tilleul, le noyer et le palissandre.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bo%C3%AEte_%C3%A0_cigares</t>
+          <t>Boîte_à_cigares</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Confection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il y a différents types de boites à cigares, correspondant à des utilisations différentes[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il y a différents types de boites à cigares, correspondant à des utilisations différentes :
 présentoir à ouverture latérale ou à charnière contenant en général 25 ou 50 cigares ;
 boite arrondie contenant trois couches de cigares, comprenant respectivement 8, 9 et 8 cigares ;
 boîte plate avec deux couches de cigares, 12 en dessous et 13 au-dessus ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bo%C3%AEte_%C3%A0_cigares</t>
+          <t>Boîte_à_cigares</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Détournements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des guitares et des ukulélés[7] sont faits avec des boites à cigares et d'autres matériaux qui ne sont pas prévus normalement pour des instruments de musique.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des guitares et des ukulélés sont faits avec des boites à cigares et d'autres matériaux qui ne sont pas prévus normalement pour des instruments de musique.
 </t>
         </is>
       </c>
